--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/04.TraBH/TBH201111_ĐLHayHue.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/04.TraBH/TBH201111_ĐLHayHue.xlsx
@@ -779,6 +779,52 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -832,52 +878,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -908,7 +908,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>695740</xdr:colOff>
+      <xdr:colOff>405848</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>289891</xdr:rowOff>
     </xdr:to>
@@ -1236,7 +1236,7 @@
   <dimension ref="A1:M65"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:I17"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1244,7 +1244,7 @@
     <col min="1" max="1" width="6.7109375" style="35" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="47.28515625" style="19" customWidth="1"/>
@@ -1256,77 +1256,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57"/>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="48" t="s">
+      <c r="A1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="51" t="s">
+      <c r="A2" s="76"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="53"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="69"/>
     </row>
     <row r="3" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="60"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="51" t="s">
+      <c r="A3" s="76"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="53"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="69"/>
     </row>
     <row r="4" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="63"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="54" t="s">
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="72"/>
     </row>
     <row r="5" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="69"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31"/>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
       <c r="E6" s="23"/>
       <c r="F6" s="40"/>
       <c r="G6" s="16"/>
@@ -1335,12 +1335,12 @@
     </row>
     <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32"/>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="78"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="50"/>
       <c r="F7" s="2"/>
       <c r="G7" s="17"/>
       <c r="H7" s="14"/>
@@ -1348,12 +1348,12 @@
     </row>
     <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33"/>
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
       <c r="F8" s="41"/>
       <c r="G8" s="38"/>
       <c r="H8" s="14"/>
@@ -1361,12 +1361,12 @@
     </row>
     <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
       <c r="F9" s="2"/>
       <c r="G9" s="17"/>
       <c r="H9" s="14"/>
@@ -1377,12 +1377,12 @@
     </row>
     <row r="10" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="34"/>
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="80"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
       <c r="F10" s="3"/>
       <c r="G10" s="18"/>
       <c r="H10" s="15"/>
@@ -1461,7 +1461,7 @@
       <c r="G13" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="76" t="s">
+      <c r="H13" s="49" t="s">
         <v>33</v>
       </c>
       <c r="I13" s="46"/>
@@ -1480,11 +1480,13 @@
       <c r="E14" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="4"/>
+      <c r="F14" s="4">
+        <v>44221898</v>
+      </c>
       <c r="G14" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="76" t="s">
+      <c r="H14" s="49" t="s">
         <v>34</v>
       </c>
       <c r="I14" s="46"/>
@@ -1501,28 +1503,28 @@
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="71" t="s">
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
       <c r="F17" s="44"/>
-      <c r="G17" s="74" t="s">
+      <c r="G17" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
     </row>
     <row r="18" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="30"/>
@@ -1569,27 +1571,35 @@
       <c r="I21" s="28"/>
     </row>
     <row r="23" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="70"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
       <c r="F23" s="43"/>
-      <c r="G23" s="75" t="s">
+      <c r="G23" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
     </row>
     <row r="26" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B26" s="70"/>
-      <c r="C26" s="70"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
     </row>
     <row r="65" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="A1:E4"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="A17:E17"/>
@@ -1599,14 +1609,6 @@
     <mergeCell ref="G23:I23"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="A1:E4"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
